--- a/bots/crawl_ch/output/electronics_2022-08-31.xlsx
+++ b/bots/crawl_ch/output/electronics_2022-08-31.xlsx
@@ -531,39 +531,41 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:29</t>
+          <t>2022-08-31 21:01:17</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6579165</t>
+          <t>6007534</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>satrap Trimm Set XA 5-in-1 Haar/Trimm-Set</t>
+          <t>Trend USB-Stick 8 GB</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>/de/kosmetik-gesundheit/herrenpflege-rasur/elektrische-herrenrasierer/satrap-trimm-set-xa-5-in-1-haartrimm-set/p/6579165</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-8-gb/p/6007534</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Trend</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>44.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -572,188 +574,146 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>['kosmetik-gesundheit', 'herrenpflege-rasur', 'elektrische-herrenrasierer']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>satrap Trimm Set XA 5-in-1 Haar/Trimm-Set 25% Aktion 44.95 Schweizer Franken statt 59.95 Schweizer Franken</t>
+          <t>Trend USB-Stick 8 GB 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:29</t>
+          <t>2022-08-31 21:01:17</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3494230</t>
+          <t>6831289</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Varta Electronics V13GS / V357 1er Bli</t>
+          <t>Rowenta Staubsauger RO2933</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-v13gs--v357-1er-bli/p/3494230</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/rowenta-staubsauger-ro2933/p/6831289</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Rowenta</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>4.95/1ST</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Varta Electronics V13GS / V357 1er Bli 4.95 Schweizer Franken</t>
+          <t>Rowenta Staubsauger RO2933 50% Aktion 84.50 Schweizer Franken statt 169.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:29</t>
+          <t>2022-08-31 21:01:17</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4589934</t>
+          <t>6579165</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Varta Longlife AA 4er Bli</t>
+          <t>satrap Trimm Set XA 5-in-1 Haar/Trimm-Set</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-aa-4er-bli/p/4589934</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4ST</t>
-        </is>
-      </c>
+          <t>/de/kosmetik-gesundheit/herrenpflege-rasur/elektrische-herrenrasierer/satrap-trimm-set-xa-5-in-1-haartrimm-set/p/6579165</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>7.95</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>1.99/1ST</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>44.95</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['kosmetik-gesundheit', 'herrenpflege-rasur', 'elektrische-herrenrasierer']</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Varta Longlife AA 4er Bli 7.95 Schweizer Franken</t>
+          <t>satrap Trimm Set XA 5-in-1 Haar/Trimm-Set 25% Aktion 44.95 Schweizer Franken statt 59.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:29</t>
+          <t>2022-08-31 21:01:17</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4119046</t>
+          <t>3494230</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Varta Ultra Lithium AA 4er Bli</t>
+          <t>Varta Electronics V13GS / V357 1er Bli</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-ultra-lithium-aa-4er-bli/p/4119046</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-v13gs--v357-1er-bli/p/3494230</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4ST</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -762,12 +722,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>3.74/1ST</t>
+          <t>4.95/1ST</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -777,7 +737,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -787,46 +747,44 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Varta Ultra Lithium AA 4er Bli 14.95 Schweizer Franken</t>
+          <t>Varta Electronics V13GS / V357 1er Bli 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:29</t>
+          <t>2022-08-31 21:01:17</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3591269</t>
+          <t>4589934</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power C 2er Bli</t>
+          <t>Varta Longlife AA 4er Bli</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-max-power-c-2er-bli/p/3591269</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-aa-4er-bli/p/4589934</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
+          <t>4ST</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -835,12 +793,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>4.48/1ST</t>
+          <t>1.99/1ST</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -850,7 +808,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -860,136 +818,180 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power C 2er Bli 8.95 Schweizer Franken</t>
+          <t>Varta Longlife AA 4er Bli 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:29</t>
+          <t>2022-08-31 21:01:17</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6753975</t>
+          <t>4119046</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Severin Standgrill mit Grillplatte PG 8563</t>
+          <t>Varta Ultra Lithium AA 4er Bli</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/severin-standgrill-mit-grillplatte-pg-8563/p/6753975</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-ultra-lithium-aa-4er-bli/p/4119046</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4ST</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Severin</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>74.50</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+          <t>14.95</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>3.74/1ST</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Severin Standgrill mit Grillplatte PG 8563 50% Aktion 74.50 Schweizer Franken statt 149.00 Schweizer Franken</t>
+          <t>Varta Ultra Lithium AA 4er Bli 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:29</t>
+          <t>2022-08-31 21:01:17</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>7016089</t>
+          <t>3591269</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Tefal Bügeleisen FV4961S0</t>
+          <t>Varta Longlife Max Power C 2er Bli</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/tefal-buegeleisen-fv4961s0/p/7016089</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-max-power-c-2er-bli/p/3591269</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2ST</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Tefal</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>49.95</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>4.48/1ST</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Tefal Bügeleisen FV4961S0 50% Aktion 49.95 Schweizer Franken statt 99.90 Schweizer Franken</t>
+          <t>Varta Longlife Max Power C 2er Bli 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:29</t>
+          <t>2022-08-31 21:01:17</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6700107</t>
+          <t>6753975</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MIELE Compact C2 Classic (mit Beutel, 890 W)</t>
+          <t>Severin Standgrill mit Grillplatte PG 8563</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/miele-compact-c2-classic-mit-beutel-890-w/p/6700107</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/severin-standgrill-mit-grillplatte-pg-8563/p/6753975</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -999,12 +1001,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Miele</t>
+          <t>Severin</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>194.50</t>
+          <t>74.50</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1013,252 +1015,194 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>MIELE Compact C2 Classic (mit Beutel, 890 W) 50% Aktion 194.50 Schweizer Franken statt 389.00 Schweizer Franken</t>
+          <t>Severin Standgrill mit Grillplatte PG 8563 50% Aktion 74.50 Schweizer Franken statt 149.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:29</t>
+          <t>2022-08-31 21:01:17</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4358322</t>
+          <t>7016089</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Rayovac Hörgerätebatterien 13 6 Stück</t>
+          <t>Tefal Bügeleisen FV4961S0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/rayovac-hoergeraetebatterien-13-6-stueck/p/4358322</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>6ST</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/tefal-buegeleisen-fv4961s0/p/7016089</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Rayovac</t>
+          <t>Tefal</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>9.95</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>1.66/1ST</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>49.95</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Rayovac Hörgerätebatterien 13 6 Stück 9.95 Schweizer Franken</t>
+          <t>Tefal Bügeleisen FV4961S0 50% Aktion 49.95 Schweizer Franken statt 99.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:29</t>
+          <t>2022-08-31 21:01:17</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>7032801</t>
+          <t>6700107</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS AA/LR6 16 Stück</t>
+          <t>MIELE Compact C2 Classic (mit Beutel, 890 W)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/duracell-batterien-plus-aalr6-16-stueck/p/7032801</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>16ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/miele-compact-c2-classic-mit-beutel-890-w/p/6700107</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Miele</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>19.90</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>1.24/1ST</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>194.50</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS AA/LR6 16 Stück 50% Aktion 19.90 Schweizer Franken statt 39.80 Schweizer Franken</t>
+          <t>MIELE Compact C2 Classic (mit Beutel, 890 W) 50% Aktion 194.50 Schweizer Franken statt 389.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:29</t>
+          <t>2022-08-31 21:01:17</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>7032804</t>
+          <t>6670192</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Duracell Batterien Plus AAA/LR03 16 Stück</t>
+          <t>Philips Wasserkocher HD9318/01</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-plus-aaalr03-16-stueck/p/7032804</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>16ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/philips-wasserkocher-hd931801/p/6670192</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Philips</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>19.90</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>1.24/1ST</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>24.95</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Duracell Batterien Plus AAA/LR03 16 Stück 50% Aktion 19.90 Schweizer Franken statt 39.80 Schweizer Franken</t>
+          <t>Philips Wasserkocher HD9318/01 50% Aktion 24.95 Schweizer Franken statt 49.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:29</t>
+          <t>2022-08-31 21:01:17</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>6735643</t>
+          <t>4358322</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>LED 31V Anschlussset Transf.+Verl.kabel</t>
+          <t>Rayovac Hörgerätebatterien 13 6 Stück</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/haushalt-kueche/uebrige-haushaltsartikel/led-31v-anschlussset-transfverlkabel/p/6735643</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/rayovac-hoergeraetebatterien-13-6-stueck/p/4358322</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6ST</t>
+        </is>
+      </c>
       <c r="E14" t="n">
         <v>1</v>
       </c>
@@ -1267,7 +1211,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Rayovac</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1275,46 +1219,64 @@
           <t>9.95</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>1.66/1ST</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'haushalt-kueche', 'uebrige-haushaltsartikel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>LED 31V Anschlussset Transf.+Verl.kabel 50% Aktion 9.95 Schweizer Franken statt 19.95 Schweizer Franken</t>
+          <t>Rayovac Hörgerätebatterien 13 6 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:29</t>
+          <t>2022-08-31 21:01:17</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4425412</t>
+          <t>6735643</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Militärtaschenlampe LED</t>
+          <t>LED 31V Anschlussset Transf.+Verl.kabel</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/beleuchtung/taschenlampen-lichter/militaertaschenlampe-led/p/4425412</t>
+          <t>/de/haushalt-tier/haushalt-kueche/uebrige-haushaltsartikel/led-31v-anschlussset-transfverlkabel/p/6735643</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1323,7 +1285,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -1332,34 +1294,34 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'beleuchtung', 'taschenlampen-lichter']</t>
+          <t>['haushalt-tier', 'haushalt-kueche', 'uebrige-haushaltsartikel']</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Militärtaschenlampe LED 8.95 Schweizer Franken</t>
+          <t>LED 31V Anschlussset Transf.+Verl.kabel 50% Aktion 9.95 Schweizer Franken statt 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:29</t>
+          <t>2022-08-31 21:01:17</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>5882124</t>
+          <t>4425412</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Philips Avent Audio Monitors DECT-Babyphone</t>
+          <t>Militärtaschenlampe LED</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/philips-avent-audio-monitors-dect-babyphone/p/5882124</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/beleuchtung/taschenlampen-lichter/militaertaschenlampe-led/p/4425412</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -1369,12 +1331,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Avent</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>99.90</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -1383,34 +1345,34 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'beleuchtung', 'taschenlampen-lichter']</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Philips Avent Audio Monitors DECT-Babyphone 99.90 Schweizer Franken</t>
+          <t>Militärtaschenlampe LED 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:29</t>
+          <t>2022-08-31 21:01:17</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>6689620</t>
+          <t>5882124</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Philips Bügeleisen GC1750/21</t>
+          <t>Philips Avent Audio Monitors DECT-Babyphone</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/philips-buegeleisen-gc175021/p/6689620</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/philips-avent-audio-monitors-dect-babyphone/p/5882124</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -1420,12 +1382,12 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Philips</t>
+          <t>Avent</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>59.90</t>
+          <t>99.90</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -1434,34 +1396,34 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete']</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Philips Bügeleisen GC1750/21 59.90 Schweizer Franken</t>
+          <t>Philips Avent Audio Monitors DECT-Babyphone 99.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:29</t>
+          <t>2022-08-31 21:01:17</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>6670192</t>
+          <t>6689620</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Philips Wasserkocher HD9318/01</t>
+          <t>Philips Bügeleisen GC1750/21</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/philips-wasserkocher-hd931801/p/6670192</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/philips-buegeleisen-gc175021/p/6689620</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -1476,7 +1438,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>24.95</t>
+          <t>59.90</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -1485,17 +1447,17 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Philips Wasserkocher HD9318/01 50% Aktion 24.95 Schweizer Franken statt 49.90 Schweizer Franken</t>
+          <t>Philips Bügeleisen GC1750/21 59.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:29</t>
+          <t>2022-08-31 21:01:17</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1508,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:29</t>
+          <t>2022-08-31 21:01:17</t>
         </is>
       </c>
     </row>
@@ -1599,7 +1561,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:29</t>
+          <t>2022-08-31 21:01:17</t>
         </is>
       </c>
     </row>
@@ -1652,7 +1614,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:29</t>
+          <t>2022-08-31 21:01:17</t>
         </is>
       </c>
     </row>
@@ -1705,7 +1667,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:29</t>
+          <t>2022-08-31 21:01:17</t>
         </is>
       </c>
     </row>
@@ -1758,7 +1720,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:29</t>
+          <t>2022-08-31 21:01:17</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1771,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:29</t>
+          <t>2022-08-31 21:01:17</t>
         </is>
       </c>
     </row>
@@ -1860,7 +1822,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:29</t>
+          <t>2022-08-31 21:01:17</t>
         </is>
       </c>
     </row>
@@ -1911,7 +1873,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:29</t>
+          <t>2022-08-31 21:01:17</t>
         </is>
       </c>
     </row>
@@ -1964,7 +1926,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:29</t>
+          <t>2022-08-31 21:01:17</t>
         </is>
       </c>
     </row>
@@ -2015,7 +1977,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:29</t>
+          <t>2022-08-31 21:01:17</t>
         </is>
       </c>
     </row>
@@ -2066,7 +2028,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:29</t>
+          <t>2022-08-31 21:01:17</t>
         </is>
       </c>
     </row>
@@ -2119,7 +2081,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:29</t>
+          <t>2022-08-31 21:01:17</t>
         </is>
       </c>
     </row>
@@ -2190,7 +2152,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:29</t>
+          <t>2022-08-31 21:01:17</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2203,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:29</t>
+          <t>2022-08-31 21:01:17</t>
         </is>
       </c>
     </row>
@@ -2312,7 +2274,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:29</t>
+          <t>2022-08-31 21:01:17</t>
         </is>
       </c>
     </row>
@@ -2383,7 +2345,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:29</t>
+          <t>2022-08-31 21:01:17</t>
         </is>
       </c>
     </row>
@@ -2454,7 +2416,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:29</t>
+          <t>2022-08-31 21:01:17</t>
         </is>
       </c>
     </row>
@@ -2525,7 +2487,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:29</t>
+          <t>2022-08-31 21:01:17</t>
         </is>
       </c>
     </row>
@@ -2576,7 +2538,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-08-31 07:14:29</t>
+          <t>2022-08-31 21:01:17</t>
         </is>
       </c>
     </row>
